--- a/data/results/quantile/Test_output_4.xlsx
+++ b/data/results/quantile/Test_output_4.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2288,7 +2288,7 @@
         <v>4.678011642163225</v>
       </c>
       <c r="E109" t="n">
-        <v>0.8286267808538521</v>
+        <v>1.015202172593398</v>
       </c>
     </row>
     <row r="110">
@@ -2296,16 +2296,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.8936448606525745</v>
+        <v>0.9005062108913913</v>
       </c>
       <c r="C110" t="n">
-        <v>6.723263872044133</v>
+        <v>5.086370813546848</v>
       </c>
       <c r="D110" t="n">
         <v>4.69866052907543</v>
       </c>
       <c r="E110" t="n">
-        <v>0.7998780231097483</v>
+        <v>0.7707498674209878</v>
       </c>
     </row>
     <row r="111">
@@ -2313,16 +2313,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.9012603481764888</v>
+        <v>0.90725111678682</v>
       </c>
       <c r="C111" t="n">
-        <v>6.339646718078918</v>
+        <v>4.843746301793596</v>
       </c>
       <c r="D111" t="n">
         <v>4.778450998129897</v>
       </c>
       <c r="E111" t="n">
-        <v>0.8025239941197448</v>
+        <v>0.7418119708293909</v>
       </c>
     </row>
     <row r="112">
@@ -2330,16 +2330,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.9077266622945255</v>
+        <v>0.9129429610271391</v>
       </c>
       <c r="C112" t="n">
-        <v>5.717427703520553</v>
+        <v>4.650993902810342</v>
       </c>
       <c r="D112" t="n">
         <v>4.808960854310534</v>
       </c>
       <c r="E112" t="n">
-        <v>0.8025376241384583</v>
+        <v>0.7937313100015858</v>
       </c>
     </row>
     <row r="113">
@@ -2347,16 +2347,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.9127842130844184</v>
+        <v>0.9174276621355671</v>
       </c>
       <c r="C113" t="n">
-        <v>5.292832919365681</v>
+        <v>4.538478099194354</v>
       </c>
       <c r="D113" t="n">
         <v>4.762950174156767</v>
       </c>
       <c r="E113" t="n">
-        <v>0.7952910986015496</v>
+        <v>0.7953796438243246</v>
       </c>
     </row>
     <row r="114">
@@ -2364,16 +2364,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.9170113319752253</v>
+        <v>0.921220770871935</v>
       </c>
       <c r="C114" t="n">
-        <v>4.738422789365102</v>
+        <v>4.538547781603452</v>
       </c>
       <c r="D114" t="n">
         <v>4.690061087190522</v>
       </c>
       <c r="E114" t="n">
-        <v>0.7946296330082731</v>
+        <v>0.8171961110310807</v>
       </c>
     </row>
     <row r="115">
@@ -2381,16 +2381,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.9204671383005973</v>
+        <v>0.9251414569691259</v>
       </c>
       <c r="C115" t="n">
-        <v>4.730937469777621</v>
+        <v>4.578787725835179</v>
       </c>
       <c r="D115" t="n">
         <v>4.537329376187067</v>
       </c>
       <c r="E115" t="n">
-        <v>0.795122620163241</v>
+        <v>0.8244893692777464</v>
       </c>
     </row>
     <row r="116">
@@ -2398,16 +2398,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.9240712751529575</v>
+        <v>0.9286328972724722</v>
       </c>
       <c r="C116" t="n">
-        <v>4.553433923234276</v>
+        <v>4.605373484955489</v>
       </c>
       <c r="D116" t="n">
         <v>4.630585375594274</v>
       </c>
       <c r="E116" t="n">
-        <v>0.8128753888331193</v>
+        <v>0.8545648541534313</v>
       </c>
     </row>
     <row r="117">
@@ -2415,16 +2415,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.9275802729776289</v>
+        <v>0.931503989372354</v>
       </c>
       <c r="C117" t="n">
-        <v>3.93517379146017</v>
+        <v>4.672182643063217</v>
       </c>
       <c r="D117" t="n">
         <v>4.728274392604824</v>
       </c>
       <c r="E117" t="n">
-        <v>0.8136401543620249</v>
+        <v>0.8837636044014515</v>
       </c>
     </row>
     <row r="118">
@@ -2432,16 +2432,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.9308042417344635</v>
+        <v>0.934057379997502</v>
       </c>
       <c r="C118" t="n">
-        <v>3.699802121964658</v>
+        <v>4.647471612734169</v>
       </c>
       <c r="D118" t="n">
         <v>4.714564803703353</v>
       </c>
       <c r="E118" t="n">
-        <v>0.8073751620436365</v>
+        <v>0.8752531207999854</v>
       </c>
     </row>
     <row r="119">
@@ -2449,16 +2449,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.933311156659701</v>
+        <v>0.9358451944218442</v>
       </c>
       <c r="C119" t="n">
-        <v>3.425717924266732</v>
+        <v>4.542318232654254</v>
       </c>
       <c r="D119" t="n">
         <v>4.703895476275147</v>
       </c>
       <c r="E119" t="n">
-        <v>0.8076192696578851</v>
+        <v>0.8904290531477275</v>
       </c>
     </row>
     <row r="120">
@@ -2466,16 +2466,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.9355313369763515</v>
+        <v>0.9377559092744031</v>
       </c>
       <c r="C120" t="n">
-        <v>3.181525574521904</v>
+        <v>4.473733554284677</v>
       </c>
       <c r="D120" t="n">
         <v>4.6848574109047</v>
       </c>
       <c r="E120" t="n">
-        <v>0.8059848563459853</v>
+        <v>0.8874487237161448</v>
       </c>
     </row>
     <row r="121">
@@ -2483,16 +2483,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.9382814932751848</v>
+        <v>0.9401361321812667</v>
       </c>
       <c r="C121" t="n">
-        <v>3.027995227548793</v>
+        <v>4.400615038470642</v>
       </c>
       <c r="D121" t="n">
         <v>4.68518698239476</v>
       </c>
       <c r="E121" t="n">
-        <v>0.8144613797295455</v>
+        <v>1.021838453769743</v>
       </c>
     </row>
   </sheetData>
